--- a/data/gapmetric.xlsx
+++ b/data/gapmetric.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CF4973-9F0F-462E-995C-F37FE0E85820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D516236-9AE6-4E9A-A465-2F770832BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="23_04_10+11" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
   <si>
     <t>STAT</t>
   </si>
@@ -78,13 +79,346 @@
   </si>
   <si>
     <t>BAD PRIOR</t>
+  </si>
+  <si>
+    <t>s/it</t>
+  </si>
+  <si>
+    <t>0.45856380248913314</t>
+  </si>
+  <si>
+    <t>0.4771079925348835</t>
+  </si>
+  <si>
+    <t>0.5090701972602084</t>
+  </si>
+  <si>
+    <t>0.5717992979024601</t>
+  </si>
+  <si>
+    <t>0.4849974837046873</t>
+  </si>
+  <si>
+    <t>0.5084527029878764</t>
+  </si>
+  <si>
+    <t>0.5460802762084428</t>
+  </si>
+  <si>
+    <t>0.5719314353960896</t>
+  </si>
+  <si>
+    <t>Gap Metric (higher is better)</t>
+  </si>
+  <si>
+    <t>Execution Time (lower is better)</t>
+  </si>
+  <si>
+    <t>STAT GOOD</t>
+  </si>
+  <si>
+    <t>STAT BAD</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>MULTIV GOOD</t>
+  </si>
+  <si>
+    <t>MULTIV BAD</t>
+  </si>
+  <si>
+    <t>0.26275532935350127</t>
+  </si>
+  <si>
+    <t>0.32399732112191604</t>
+  </si>
+  <si>
+    <t>0.20061415736321564</t>
+  </si>
+  <si>
+    <t>0.2263623639317266</t>
+  </si>
+  <si>
+    <t>0.2625702745446173</t>
+  </si>
+  <si>
+    <t>0.40495271317544407</t>
+  </si>
+  <si>
+    <t>0.14927492338460532</t>
+  </si>
+  <si>
+    <t>0.2102090105430908</t>
+  </si>
+  <si>
+    <t>IND GOOD</t>
+  </si>
+  <si>
+    <t>IND BAD</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>0.3652742334112096</t>
+  </si>
+  <si>
+    <t>0.3658468263487933</t>
+  </si>
+  <si>
+    <t>0.3595746616423648</t>
+  </si>
+  <si>
+    <t>0.36739299394311176</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>0.5428909065212074</t>
+  </si>
+  <si>
+    <t>0.5955886057707248</t>
+  </si>
+  <si>
+    <t>0.6399188094969215</t>
+  </si>
+  <si>
+    <t>0.6765549754761296</t>
+  </si>
+  <si>
+    <t>NONSTAT BAD</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>NONSTAT GOOD</t>
+  </si>
+  <si>
+    <t>0.5685945146884516</t>
+  </si>
+  <si>
+    <t>0.5409551416336841</t>
+  </si>
+  <si>
+    <t>0.6446603316896165</t>
+  </si>
+  <si>
+    <t>0.7064312988228786</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>0.3956582079427773</t>
+  </si>
+  <si>
+    <t>0.42766499284021625</t>
+  </si>
+  <si>
+    <t>0.3608785743510634</t>
+  </si>
+  <si>
+    <t>0.43386108759706943</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>0.4702066352985901</t>
+  </si>
+  <si>
+    <t>0.5149581265063006</t>
+  </si>
+  <si>
+    <t>0.5835910013082956</t>
+  </si>
+  <si>
+    <t>0.6092468229255434</t>
+  </si>
+  <si>
+    <t>0.4439724762473684</t>
+  </si>
+  <si>
+    <t>0.4475416467192837</t>
+  </si>
+  <si>
+    <t>0.6040076311460867</t>
+  </si>
+  <si>
+    <t>0.6243282515074137</t>
+  </si>
+  <si>
+    <t>ODE GOOD</t>
+  </si>
+  <si>
+    <t>ODE BAD</t>
+  </si>
+  <si>
+    <t>ODE</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>52.47</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>6.22 (+3.3%)</t>
+  </si>
+  <si>
+    <t>4.69 (2.6%)</t>
+  </si>
+  <si>
+    <t>6.08 (+0%)</t>
+  </si>
+  <si>
+    <t>4.91 (-2.4%)</t>
+  </si>
+  <si>
+    <t>5.05 (+5.2%)</t>
+  </si>
+  <si>
+    <t>4.39 (-2.4%)</t>
+  </si>
+  <si>
+    <t>5.6 (-7.4%)</t>
+  </si>
+  <si>
+    <t>4.75 (+1.5%)</t>
+  </si>
+  <si>
+    <t>3.76 (-5.5%)</t>
+  </si>
+  <si>
+    <t>52.75 (+0%)</t>
+  </si>
+  <si>
+    <t>6 (-4.6%)</t>
+  </si>
+  <si>
+    <t>4.52 (-0%)</t>
+  </si>
+  <si>
+    <t>6.0 (-1.6%)</t>
+  </si>
+  <si>
+    <t>4.9 (-2.6%)</t>
+  </si>
+  <si>
+    <t>4.55 (-3.6%)</t>
+  </si>
+  <si>
+    <t>4.43 (-4.5%)</t>
+  </si>
+  <si>
+    <t>5.88 (+9%)</t>
+  </si>
+  <si>
+    <t>5.01 (+3.5%)</t>
+  </si>
+  <si>
+    <t>3.79 (-3.3%)</t>
+  </si>
+  <si>
+    <t>53.11 (-0%)</t>
+  </si>
+  <si>
+    <t>0.762579758575182</t>
+  </si>
+  <si>
+    <t>0.7742576817149439</t>
+  </si>
+  <si>
+    <t>0.7857687697504633</t>
+  </si>
+  <si>
+    <t>0.8086426281674632</t>
+  </si>
+  <si>
+    <t>0.8092202626106034</t>
+  </si>
+  <si>
+    <t>0.7972578304687182</t>
+  </si>
+  <si>
+    <t>0.8089537369014667</t>
+  </si>
+  <si>
+    <t>0.8252836049716695</t>
+  </si>
+  <si>
+    <t>PISCHAT GOOD</t>
+  </si>
+  <si>
+    <t>PiSCHAT BAD</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>4.45 (-4.5%)</t>
+  </si>
+  <si>
+    <t>9.63 (-0.7%)</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>4.56 (+2.5%)</t>
+  </si>
+  <si>
+    <t>9.89 (-1.8%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +434,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,19 +486,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -139,6 +568,743 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21328B55-52A3-A78F-617C-E9291BA13218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10658475" y="504825"/>
+          <a:ext cx="14620875" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31DCFD5-7E3D-491D-1A18-609B9B9E2757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10658475" y="6153150"/>
+          <a:ext cx="14620875" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Immagine 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F86967-7D9D-4D42-91B1-7C45C6D2991B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42585409" y="502227"/>
+          <a:ext cx="14546530" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Immagine 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90E8E15-67C4-4F0B-BEF1-392130FC1FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="42585409" y="6147955"/>
+          <a:ext cx="14546530" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Immagine 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0CCE60-35A8-9163-3DDF-D7116157F719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26870025" y="504825"/>
+          <a:ext cx="14620875" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Immagine 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A61600-DC76-5B31-1EC8-9F667930E3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="58664475" y="6153150"/>
+          <a:ext cx="14411325" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Immagine 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBAFCC2-E359-37C7-3474-CF539297E1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="58664475" y="504825"/>
+          <a:ext cx="14411325" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Immagine 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E93EF6-2ED9-A630-B9C4-751E771C72C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26936700" y="6153150"/>
+          <a:ext cx="14620875" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Immagine 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC05E36-6B3F-5639-37EA-E2CF8CE62187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="74780775" y="504825"/>
+          <a:ext cx="16011525" cy="5191125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Immagine 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D03CDED-1E9D-0693-5076-913AFDBC5E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="74780775" y="6534150"/>
+          <a:ext cx="16011525" cy="5191125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>140</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>163</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Immagine 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B977EE-EF23-0356-C5EE-6DAB5DF7068A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="91944825" y="504825"/>
+          <a:ext cx="14535150" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>140</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>163</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Immagine 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBE42AE-B374-F773-1A2E-D3F6D5E67BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="91944825" y="6534150"/>
+          <a:ext cx="14535150" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,127 +1604,904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763B37C-B278-4649-9A6B-98CC4665D076}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:EK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F46:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:141" ht="21">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" ht="18.75">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:141">
+      <c r="A3" s="5"/>
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:141">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:141">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:141">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:141">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:141">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:141">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:141">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:141">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="30" spans="1:141" ht="21">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:141" ht="18.75">
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:141">
+      <c r="A32" s="5"/>
+      <c r="B32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="DI32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:38">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
+      <c r="A40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
+      <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
+      <c r="AL43" s="18"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1311AFBF-A8C9-4616-A942-6D246178E902}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75">
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/gapmetric.xlsx
+++ b/data/gapmetric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D516236-9AE6-4E9A-A465-2F770832BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F02774-9D0F-4FDA-948A-94B9624CC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
   <si>
     <t>STAT</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>9.89 (-1.8%)</t>
+  </si>
+  <si>
+    <t>ECON</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -501,11 +504,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1607,7 +1626,7 @@
   <dimension ref="A1:EK61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F46:F47"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,7 +1635,8 @@
     <col min="2" max="3" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1677,7 +1697,9 @@
       <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:141">
       <c r="A4" t="s">
@@ -1707,7 +1729,7 @@
       <c r="G5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:141">
       <c r="A6" s="6" t="s">
@@ -1731,7 +1753,7 @@
       <c r="G6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:141">
       <c r="A7" s="6" t="s">
@@ -1755,7 +1777,7 @@
       <c r="G7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:141">
       <c r="A8" s="6" t="s">
@@ -1779,7 +1801,7 @@
       <c r="G8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:141">
       <c r="A9" s="14" t="s">
@@ -1809,7 +1831,8 @@
       <c r="G10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1835,7 +1858,8 @@
       <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1861,7 +1885,8 @@
       <c r="G12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1887,7 +1912,8 @@
       <c r="G13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1942,7 +1968,9 @@
       <c r="G32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="DI32" t="s">
         <v>81</v>
       </c>
@@ -1974,7 +2002,7 @@
       <c r="G34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="6" t="s">
@@ -1998,7 +2026,7 @@
       <c r="G35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="6" t="s">
@@ -2022,7 +2050,7 @@
       <c r="G36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="6" t="s">
@@ -2046,7 +2074,7 @@
       <c r="G37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="14" t="s">
@@ -2076,7 +2104,8 @@
       <c r="G39" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2102,7 +2131,8 @@
       <c r="G40" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="5"/>
+      <c r="I40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2128,7 +2158,8 @@
       <c r="G41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2154,7 +2185,8 @@
       <c r="G42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="12" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/gapmetric.xlsx
+++ b/data/gapmetric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F02774-9D0F-4FDA-948A-94B9624CC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DAD54-5379-4565-A279-58DC7F905722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
   </bookViews>
   <sheets>
     <sheet name="23_04_10+11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
   <si>
     <t>STAT</t>
   </si>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -566,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,8 +1092,8 @@
     <xdr:to>
       <xdr:col>138</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1625,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763B37C-B278-4649-9A6B-98CC4665D076}">
   <dimension ref="A1:EK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1920,9 +1923,17 @@
     <row r="20" spans="1:141">
       <c r="B20" s="17"/>
     </row>
-    <row r="30" spans="1:141" ht="21">
-      <c r="A30" s="4" t="s">
+    <row r="29" spans="1:141" ht="21">
+      <c r="A29" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:141" ht="18.75">
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>
@@ -1937,172 +1948,191 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:141" ht="18.75">
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
+    <row r="31" spans="1:141">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="EK31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:141">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>125</v>
+      <c r="A32" t="s">
+        <v>23</v>
       </c>
       <c r="DI32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="A37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="11"/>
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="12" t="s">
@@ -2111,25 +2141,25 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="12" t="s">
@@ -2138,55 +2168,28 @@
     </row>
     <row r="41" spans="1:38">
       <c r="A41" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2207,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1311AFBF-A8C9-4616-A942-6D246178E902}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2266,9 +2269,7 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2279,9 +2280,7 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2292,9 +2291,7 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2305,9 +2302,7 @@
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2420,9 +2415,7 @@
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2433,9 +2426,7 @@
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2446,9 +2437,7 @@
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2459,9 +2448,7 @@
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B22" s="21"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>

--- a/data/gapmetric.xlsx
+++ b/data/gapmetric.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucal\Desktop\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DAD54-5379-4565-A279-58DC7F905722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC8511-3AC5-40A8-85BF-19B009CFA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{76E9319E-C95A-42A7-BD61-0A3BDCF95D11}"/>
   </bookViews>
   <sheets>
     <sheet name="23_04_10+11" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="167">
   <si>
     <t>STAT</t>
   </si>
@@ -63,9 +64,6 @@
     <t>BO</t>
   </si>
   <si>
-    <t>PLANKTON</t>
-  </si>
-  <si>
     <t>PISCHAT</t>
   </si>
   <si>
@@ -415,6 +413,132 @@
   </si>
   <si>
     <t>ECON</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>6.93</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>6.81</t>
+  </si>
+  <si>
+    <t>Average Execution Time (lower is better)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Gap Metric (higher is better) </t>
+  </si>
+  <si>
+    <t>Final Gap Metric (higher is better)</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>GOOD PRIOR (N=10)</t>
+  </si>
+  <si>
+    <t>BAD PRIOR (N=10)</t>
+  </si>
+  <si>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>Synthetic</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>GOOD PRIOR (N=?)</t>
+  </si>
+  <si>
+    <t>BAD PRIOR (N=?)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,8 +604,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -517,14 +665,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,9 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +727,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,16 +1827,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763B37C-B278-4649-9A6B-98CC4665D076}">
   <dimension ref="A1:EK61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1650,554 +1849,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:141" ht="21">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CJ1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DI1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="EK1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:141" ht="18.75">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:141">
-      <c r="A3" s="5"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>125</v>
+      <c r="F3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:141">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:141">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:141">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:141">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:141">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:141">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:141">
-      <c r="A5" s="6" t="s">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:141">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:141">
-      <c r="A6" s="6" t="s">
+      <c r="B10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:141">
-      <c r="A7" s="6" t="s">
+      <c r="B11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:141">
-      <c r="A8" s="6" t="s">
+      <c r="B12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:141">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:141">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:141">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:141">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:141">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="20" t="s">
-        <v>14</v>
+      <c r="H13" s="4"/>
+      <c r="I13" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:141">
-      <c r="B20" s="17"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="29" spans="1:141" ht="21">
-      <c r="A29" s="4" t="s">
-        <v>13</v>
+      <c r="A29" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:141" ht="18.75">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BJ30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CJ30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:141">
-      <c r="A31" s="5"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>125</v>
+      <c r="F31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="EK31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:141">
       <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:38">
+      <c r="A37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="DI32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="6" t="s">
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:38">
-      <c r="A34" s="6" t="s">
+      <c r="B38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:38">
-      <c r="A35" s="6" t="s">
+      <c r="B39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
+      <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:38">
-      <c r="A36" s="6" t="s">
+      <c r="B40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:38">
-      <c r="A37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:38">
-      <c r="A38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38">
-      <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38">
-      <c r="A40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38">
-      <c r="A41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="12" t="s">
-        <v>14</v>
+      <c r="H41" s="4"/>
+      <c r="I41" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:38">
-      <c r="AL43" s="18"/>
+      <c r="AL43" s="16"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="17"/>
+      <c r="E61" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,319 +2407,1064 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1311AFBF-A8C9-4616-A942-6D246178E902}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="B2" s="35"/>
+      <c r="C2" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="H3" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21">
-      <c r="A15" s="4" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75">
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21">
+      <c r="A20" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
+      <c r="B21" s="35"/>
+      <c r="C21" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="H22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="D39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA22E6BC-B2A1-4386-8A79-9623574E66A1}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21">
+      <c r="A1" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="B2" s="35"/>
+      <c r="C2" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="31"/>
+      <c r="B3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75">
+      <c r="B21" s="35"/>
+      <c r="C21" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>